--- a/skdd/test.xlsx
+++ b/skdd/test.xlsx
@@ -19,6 +19,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">lol</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,13 +122,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -150,8 +156,8 @@
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
+      <c r="C3" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -161,8 +167,8 @@
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
+      <c r="C4" s="0" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/skdd/test.xlsx
+++ b/skdd/test.xlsx
@@ -122,7 +122,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
